--- a/daiagnosis_rawdata_translated.xlsx
+++ b/daiagnosis_rawdata_translated.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agoujun/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agoujun/Desktop/Question/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB529D45-7F92-8A49-B8AD-A3516DA9EA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E1BB85-552A-914B-BF6F-9E807F8449E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14440" yWindow="660" windowWidth="14360" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="140">
   <si>
     <t>Category</t>
   </si>
@@ -64,9 +77,6 @@
     <t>mental reaction</t>
   </si>
   <si>
-    <t>Body shape, cheerfulness, energy</t>
-  </si>
-  <si>
     <t>Skeleton/body shape</t>
   </si>
   <si>
@@ -160,90 +170,27 @@
     <t>Peacetime reaction</t>
   </si>
   <si>
-    <t>Underweight/low energy</t>
-  </si>
-  <si>
-    <t>Thin and tall, or thin and short</t>
-  </si>
-  <si>
-    <t>Bone protrusions such as the collarbone and ankle are noticeable</t>
-  </si>
-  <si>
-    <t>Visible veins in arms, etc.</t>
-  </si>
-  <si>
     <t>few</t>
   </si>
   <si>
-    <t>Moisture balance changes easily</t>
-  </si>
-  <si>
-    <t>weak</t>
-  </si>
-  <si>
     <t>not very strong</t>
   </si>
   <si>
-    <t>Light, easy to wake up, prone to sleep deprivation</t>
-  </si>
-  <si>
-    <t>cold, dry</t>
-  </si>
-  <si>
-    <t>No sweat and no odor</t>
-  </si>
-  <si>
-    <t>Difficulty gaining weight</t>
-  </si>
-  <si>
-    <t>dry, flaky</t>
-  </si>
-  <si>
-    <t>less and dry</t>
-  </si>
-  <si>
-    <t>Teeth are not well aligned and the size of the teeth are uneven</t>
-  </si>
-  <si>
     <t>thin and few</t>
   </si>
   <si>
-    <t>The nose line is thin and the tip of the nose is dry.</t>
-  </si>
-  <si>
-    <t>It's dry and has thin lips. darkened</t>
-  </si>
-  <si>
-    <t>Ribs are prominent and chest size is small</t>
-  </si>
-  <si>
-    <t>Irregular and prone to constipation</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>Active but inconsistent and short-lived</t>
-  </si>
-  <si>
     <t>fast and stable</t>
   </si>
   <si>
     <t>Observant, quick to learn, but also quick to forget</t>
   </si>
   <si>
-    <t>inconsistent and inconsistent</t>
-  </si>
-  <si>
     <t>likes sweet, sour and salty</t>
   </si>
   <si>
     <t>likes warm things</t>
   </si>
   <si>
-    <t>irregular</t>
-  </si>
-  <si>
     <t>Sometimes it's uncomfortable, sometimes it's not.</t>
   </si>
   <si>
@@ -256,66 +203,12 @@
     <t>Increased worry and anxiety</t>
   </si>
   <si>
-    <t>Average body type and energy</t>
-  </si>
-  <si>
-    <t>So-called medium build</t>
-  </si>
-  <si>
-    <t>Bone protrusions are visible</t>
-  </si>
-  <si>
-    <t>slightly visible</t>
-  </si>
-  <si>
     <t>usually</t>
   </si>
   <si>
-    <t>want water</t>
-  </si>
-  <si>
-    <t>It's normal, but I can sleep soundly to some extent.</t>
-  </si>
-  <si>
     <t>heat</t>
   </si>
   <si>
-    <t>sweat a lot and have a strong odor</t>
-  </si>
-  <si>
-    <t>little change</t>
-  </si>
-  <si>
-    <t>Moist and soft</t>
-  </si>
-  <si>
-    <t>Soft hair, thin, dry, easy to fall out</t>
-  </si>
-  <si>
-    <t>Shiny, moderate size, yellowish</t>
-  </si>
-  <si>
-    <t>brownish</t>
-  </si>
-  <si>
-    <t>Normal nose shape. The tip of the nose is slightly damp</t>
-  </si>
-  <si>
-    <t>reddish, shiny, and moist</t>
-  </si>
-  <si>
-    <t>common chest size</t>
-  </si>
-  <si>
-    <t>soft and loose</t>
-  </si>
-  <si>
-    <t>Moderately</t>
-  </si>
-  <si>
-    <t>Move with a plan and no waste</t>
-  </si>
-  <si>
     <t>Not very agile, but sharp movements</t>
   </si>
   <si>
@@ -346,81 +239,27 @@
     <t>become angry</t>
   </si>
   <si>
-    <t>Sturdy and full of energy</t>
-  </si>
-  <si>
     <t>short and stocky</t>
   </si>
   <si>
-    <t>Bone protrusions are not visible</t>
-  </si>
-  <si>
-    <t>can't see</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
-    <t>Good balance</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>sleep deeply and very well</t>
-  </si>
-  <si>
-    <t>cold, humidity</t>
-  </si>
-  <si>
-    <t>The amount of sweat is normal and there is no odor.</t>
-  </si>
-  <si>
     <t>easy to increase</t>
   </si>
   <si>
-    <t>Sebum is high and easily sticky</t>
-  </si>
-  <si>
-    <t>Rich, smooth, soft hair. thick and strong hair roots</t>
-  </si>
-  <si>
-    <t>teeth are strong and white</t>
-  </si>
-  <si>
     <t>long and thick</t>
   </si>
   <si>
-    <t>The nose is large and the tip of the nose is oily due to sebum.</t>
-  </si>
-  <si>
-    <t>Wide lips, pink or whitish in color</t>
-  </si>
-  <si>
-    <t>The chest is large and covered with subcutaneous fat</t>
-  </si>
-  <si>
-    <t>Regular and constant in shape</t>
-  </si>
-  <si>
-    <t>There is enough</t>
-  </si>
-  <si>
-    <t>slow but regular</t>
-  </si>
-  <si>
     <t>Moves slowly but efficiently</t>
   </si>
   <si>
-    <t>Have a good memory and remember for a long time</t>
-  </si>
-  <si>
     <t>think slowly, clearly and thoughtfully</t>
   </si>
   <si>
-    <t>likes bitter, sweet, and stimulating things</t>
-  </si>
-  <si>
     <t>likes hot things</t>
   </si>
   <si>
@@ -440,6 +279,186 @@
   </si>
   <si>
     <t>Answer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sensitivity to cold</t>
+  </si>
+  <si>
+    <t>hot flashes/hot flashes</t>
+  </si>
+  <si>
+    <t>whole digestion</t>
+  </si>
+  <si>
+    <t>tall and thin</t>
+  </si>
+  <si>
+    <t>Bone protrusions such as collarbones and ankles are noticeable</t>
+  </si>
+  <si>
+    <t>Visible blood vessels in the arms, etc.</t>
+  </si>
+  <si>
+    <t>changes depending on the time</t>
+  </si>
+  <si>
+    <t>susceptible to illness</t>
+  </si>
+  <si>
+    <t>Shallow and easy to wake up</t>
+  </si>
+  <si>
+    <t>coldness</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>difficult to increase</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>Teeth are misaligned and uneven in size</t>
+  </si>
+  <si>
+    <t>nose bridge is thin and small</t>
+  </si>
+  <si>
+    <t>the tip of the nose is dry</t>
+  </si>
+  <si>
+    <t>Ribs are prominent and small</t>
+  </si>
+  <si>
+    <t>prone to constipation</t>
+  </si>
+  <si>
+    <t>Not very good</t>
+  </si>
+  <si>
+    <t>I don't exercise much</t>
+  </si>
+  <si>
+    <t>changes daily</t>
+  </si>
+  <si>
+    <t>Medium build, medium height</t>
+  </si>
+  <si>
+    <t>The bone protrusion is slightly visible.</t>
+  </si>
+  <si>
+    <t>Some blood vessels are visible</t>
+  </si>
+  <si>
+    <t>drink lots of water</t>
+  </si>
+  <si>
+    <t>Not much different</t>
+  </si>
+  <si>
+    <t>It's moist</t>
+  </si>
+  <si>
+    <t>normal and soft</t>
+  </si>
+  <si>
+    <t>neither</t>
+  </si>
+  <si>
+    <t>moisturized</t>
+  </si>
+  <si>
+    <t>soft and diarrhea-like</t>
+  </si>
+  <si>
+    <t>exercise moderately</t>
+  </si>
+  <si>
+    <t>The bone protrusion is not very visible.</t>
+  </si>
+  <si>
+    <t>Blood vessels are difficult to see</t>
+  </si>
+  <si>
+    <t>Good balance (little change)</t>
+  </si>
+  <si>
+    <t>less likely to get sick</t>
+  </si>
+  <si>
+    <t>sleep deeply and well</t>
+  </si>
+  <si>
+    <t>a bit</t>
+  </si>
+  <si>
+    <t>oily (oily)</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>Teeth are well aligned and strong</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>The tip of the nose is greasy</t>
+  </si>
+  <si>
+    <t>change over time</t>
+  </si>
+  <si>
+    <t>large and covered with fat</t>
+  </si>
+  <si>
+    <t>regular and stable</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>exercise often</t>
+  </si>
+  <si>
+    <t>It takes time to remember, but you remember it for a long time.</t>
+  </si>
+  <si>
+    <t>likes exciting things</t>
+  </si>
+  <si>
+    <t>sweat easily</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Not easy to sweat</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>usual</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>have endurance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lack of stamina</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>inconsistent</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -815,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -846,13 +865,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -863,13 +882,13 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -880,13 +899,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -897,13 +916,13 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -914,30 +933,30 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -948,13 +967,13 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -965,13 +984,13 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -982,13 +1001,13 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -999,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1016,13 +1035,13 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1030,33 +1049,33 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1064,16 +1083,16 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1081,16 +1100,16 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1098,16 +1117,16 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1115,16 +1134,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1132,16 +1151,16 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1149,16 +1168,16 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1166,115 +1185,115 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G26" t="s">
         <v>131</v>
@@ -1282,53 +1301,53 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1336,67 +1355,118 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" t="s">
         <v>75</v>
-      </c>
-      <c r="E31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" t="s">
         <v>76</v>
-      </c>
-      <c r="E32" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" t="s">
-        <v>138</v>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
